--- a/Disagreement_Markus_Franz_0.xlsx
+++ b/Disagreement_Markus_Franz_0.xlsx
@@ -3104,8 +3104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7571,7 +7571,7 @@
         <v>75</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>498</v>
